--- a/Daisy-xls/ResearchPages/research-anal-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-anal-cancer.xlsx
@@ -27,15 +27,9 @@
     <t>Content ID</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/quadHPV-vaccine-men2011</t>
-  </si>
-  <si>
     <t>Vaccine Reduces HPV Infections in Young Men</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2013/electrocautery-anal-precancer0413</t>
-  </si>
-  <si>
     <t>Electrocautery Superior to Topical Treatments for Precancerous Anal Lesions</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2013/electrocautery-anal-precancer0413</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/quadHPV-vaccine-men2011</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -531,7 +531,7 @@
     <col min="1" max="1" width="6.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="6"/>
@@ -539,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -551,10 +551,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -566,13 +566,13 @@
         <v>545408</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="9">
         <v>41368</v>
@@ -586,10 +586,10 @@
         <v>441136</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="13">
@@ -604,13 +604,13 @@
         <v>69986</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9">
         <v>40631</v>
@@ -626,7 +626,7 @@
     <sortCondition descending="1" ref="F1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://www.cancer.gov/clinicaltrials/results/summary/2011/quadHPV-vaccine-men2011"/>
     <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
